--- a/POI.xlsx
+++ b/POI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\Desktop\Penn Data Analysis and Visualization Boot Camp\Project 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\Desktop\Penn Data Analysis and Visualization Boot Camp\Project 4\Project-4-Enron-Emails-with-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AA9593-10BE-487A-B628-FB48A266287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78DDF4-2171-4D77-A9A6-87C7B8151D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0771040E-1705-4114-8A8E-2A2C18D0CBF7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0771040E-1705-4114-8A8E-2A2C18D0CBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,114 +35,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>http://usatoday30.usatoday.com/money/industries/energy/2005-12-28-enron-participants_x.htm</t>
-  </si>
-  <si>
-    <t>(y) Lay, Kenneth</t>
-  </si>
-  <si>
-    <t>(y) Skilling, Jeffrey</t>
-  </si>
-  <si>
-    <t>(n) Howard, Kevin</t>
-  </si>
-  <si>
-    <t>(n) Krautz, Michael</t>
-  </si>
-  <si>
-    <t>(n) Yeager, Scott</t>
-  </si>
-  <si>
-    <t>(n) Hirko, Joseph</t>
-  </si>
-  <si>
-    <t>(n) Shelby, Rex</t>
-  </si>
-  <si>
-    <t>(n) Bermingham, David</t>
-  </si>
-  <si>
-    <t>(n) Darby, Giles</t>
-  </si>
-  <si>
-    <t>(n) Mulgrew, Gary</t>
-  </si>
-  <si>
-    <t>(n) Bayley, Daniel</t>
-  </si>
-  <si>
-    <t>(n) Brown, James</t>
-  </si>
-  <si>
-    <t>(n) Furst, Robert</t>
-  </si>
-  <si>
-    <t>(n) Fuhs, William</t>
-  </si>
-  <si>
-    <t>(n) Causey, Richard</t>
-  </si>
-  <si>
-    <t>(n) Calger, Christopher</t>
-  </si>
-  <si>
-    <t>(n) DeSpain, Timothy</t>
-  </si>
-  <si>
-    <t>(n) Hannon, Kevin</t>
-  </si>
-  <si>
-    <t>(n) Koenig, Mark</t>
-  </si>
-  <si>
-    <t>(y) Forney, John</t>
-  </si>
-  <si>
-    <t>(n) Rice, Kenneth</t>
-  </si>
-  <si>
-    <t>(n) Rieker, Paula</t>
-  </si>
-  <si>
-    <t>(n) Fastow, Lea</t>
-  </si>
-  <si>
-    <t>(n) Fastow, Andrew</t>
-  </si>
-  <si>
-    <t>(y) Delainey, David</t>
-  </si>
-  <si>
-    <t>(n) Glisan, Ben</t>
-  </si>
-  <si>
-    <t>(n) Richter, Jeffrey</t>
-  </si>
-  <si>
-    <t>(n) Lawyer, Larry</t>
-  </si>
-  <si>
-    <t>(n) Belden, Timothy</t>
-  </si>
-  <si>
-    <t>(n) Kopper, Michael</t>
-  </si>
-  <si>
-    <t>(n) Duncan, David</t>
-  </si>
-  <si>
-    <t>(n) Bowen, Raymond</t>
-  </si>
-  <si>
-    <t>(n) Colwell, Wesley</t>
-  </si>
-  <si>
-    <t>(n) Boyle, Dan</t>
-  </si>
-  <si>
-    <t>(n) Loehr, Christopher</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+  <si>
+    <t xml:space="preserve"> Lay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kenneth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeffrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krautz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hirko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shelby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bermingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Darby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mulgrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Furst</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Causey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DeSpain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koenig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rieker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fastow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delainey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Larry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duncan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bowen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raymond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loehr</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -494,192 +575,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C915F-C5DA-44D1-AFF1-9893AFED524A}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
+      <c r="C35" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
